--- a/data/個人制作データ.xlsx
+++ b/data/個人制作データ.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbc16b08\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbc16b08\Documents\github\AloneGame\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="6675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="6675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="システム" sheetId="1" r:id="rId1"/>
-    <sheet name="キャラ" sheetId="3" r:id="rId2"/>
-    <sheet name="アイテム" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="装備品" sheetId="5" r:id="rId2"/>
+    <sheet name="キャラ" sheetId="3" r:id="rId3"/>
+    <sheet name="アイテム" sheetId="2" r:id="rId4"/>
+    <sheet name="トラップ" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
   <si>
     <t>効果など</t>
     <phoneticPr fontId="1"/>
@@ -57,147 +58,287 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ダンジョン潜伏のデフォ値100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃料100回復</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改良パーツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃料最大値+10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唐辛子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1フロア中攻撃アップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倍速の実</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃料が2減るまで２倍速になる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵にダメージ与えるためのステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵から受けるダメージの参考ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見習い兵士</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵士</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勇者(剣士)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勇者(魔法使い)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPが少なくなると逃げ出す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動物A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動物B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本寝ている。攻撃が高い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強敵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力(HP)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態異常</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火炎ビン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>睡眠ビン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻痺ビン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投げ当てるとダメージを与える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乾きの粉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投げ当てると睡眠状態になる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投げ当てると麻痺状態になる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃料の最大値が-10。敵に投げ当てるとMPを減少させることができる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離攻撃可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッキ材</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1フロア中防御アップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度が1/2になる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動物Ｃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たまに仲間を呼ぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重装兵士</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御高め</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常時２倍速</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離攻撃可。超低確率で部屋全体攻撃使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法使い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薬草</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP50回復</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値1。ダンジョン初回クリアによって増える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>回復</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>燃料タンク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダンジョン潜伏のデフォ値100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>燃料100回復</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>改良パーツ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>燃料最大値+10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>強化</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>強化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態異常</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈍足の実</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石炭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>分類</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>唐辛子</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1フロア中攻撃アップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>倍速の実</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>燃料が2減るまで２倍速になる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステータス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>防御力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵にダメージ与えるためのステータス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動物程度なら倒せる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵から受けるダメージの参考ステータス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勇者からは基本ワンパンされるので終盤は意味無し</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0になると1歩ごとにHPが1減る</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>見習い兵士</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>兵士</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勇者(剣士)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勇者(魔法使い)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HPが少なくなると逃げ出す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動物A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動物B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本寝ている。攻撃が高い</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>強敵</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体力(HP)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>状態異常</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>火炎ビン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>睡眠ビン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>麻痺ビン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投げ当てるとダメージを与える</t>
+    <t>名称</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワープの罠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃が下がる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果など</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通路やドア以外のマスにワープ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落とし穴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョンから強制脱出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗闇の罠</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -205,91 +346,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>乾きの粉</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投げ当てると睡眠状態になる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投げ当てると麻痺状態になる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>燃料の最大値が-10。敵に投げ当てるとMPを減少させることができる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遠距離攻撃可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッキ材</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1フロア中防御アップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鈍足の実</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>速度が1/2になる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動物Ｃ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>たまに仲間を呼ぶ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重装兵士</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>防御高め</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>常時２倍速</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遠距離攻撃可。超低確率で部屋全体攻撃使用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>魔法使い</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>薬草</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HP50回復</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期値1。ダンジョン初回クリアによって増える</t>
+    <t>パワーダウンの罠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼び寄せの罠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周囲に敵が集まる(1回のみ作動)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>満腹度。0になると1歩ごとにHPが1減る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同上。勇者からは基本ワンパンされるので終盤は意味無し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠やアイテムによって+-6段階まで上下する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワープの種</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムにワープする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワープ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通路やドア以外の部屋にワープ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防具</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -652,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -662,7 +779,7 @@
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="40.375" customWidth="1"/>
-    <col min="5" max="5" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
@@ -688,16 +805,16 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -707,13 +824,13 @@
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -723,13 +840,13 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -742,11 +859,200 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="39.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -845,11 +1151,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I15"/>
   <sheetViews>
@@ -874,13 +1179,13 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -897,13 +1202,13 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -914,10 +1219,10 @@
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -928,10 +1233,10 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -942,7 +1247,7 @@
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -954,7 +1259,7 @@
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -966,10 +1271,10 @@
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -980,10 +1285,10 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -993,13 +1298,13 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1010,10 +1315,10 @@
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1057,12 +1362,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1079,7 +1384,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -1095,13 +1400,13 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1110,12 +1415,14 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1124,12 +1431,14 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1139,13 +1448,13 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1154,13 +1463,265 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="B4:I16">
+    <sortCondition descending="1" ref="B4:B16"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1179,12 +1740,8 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1192,15 +1749,9 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1209,12 +1760,8 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1232,15 +1779,9 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1249,12 +1790,8 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1263,33 +1800,128 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sortState ref="B2:I27">
+    <sortCondition descending="1" ref="B2:B27"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
